--- a/biology/Zoologie/Iberolacerta/Iberolacerta.xlsx
+++ b/biology/Zoologie/Iberolacerta/Iberolacerta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Iberolacerta est un genre de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iberolacerta est un genre de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans le sud de l'Europe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans le sud de l'Europe.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (22 janvier 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (22 janvier 2013) :
 Iberolacerta aranica (Arribas, 1993)
 Iberolacerta aurelioi (Arribas, 1994)
 Iberolacerta bonnali (Lantz, 1927) — Lézard des Pyrénées
@@ -580,9 +596,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Iberolacerta a été utilisé pour la première fois en 1997 dans une thèse, qui n'a pas été publiée formellement[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Iberolacerta a été utilisé pour la première fois en 1997 dans une thèse, qui n'a pas été publiée formellement.
 </t>
         </is>
       </c>
@@ -611,9 +629,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de ce genre, Iberolacerta, vient du latin iberia, de la péninsule ibérique, et de lacerta, « lézard », en référence à la distribution de certaines espèces de ce genre[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de ce genre, Iberolacerta, vient du latin iberia, de la péninsule ibérique, et de lacerta, « lézard », en référence à la distribution de certaines espèces de ce genre.
 </t>
         </is>
       </c>
@@ -642,7 +662,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Arribas, 1999 : Phylogeny and relationships of the mountain lizards of Europe and Near East (Archaeolacerta MERTENS, 1921, sensu lato) and their relationships among the eurasian lacertid radiation. Russian Journal of Herpetology vol. 6, no 1, p. 1-22.</t>
         </is>
